--- a/02_MasterWifoMannheim/03_Courses/Course78.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course78.xlsx
@@ -1,37 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05905DB9B3611593A90B4433FFB59" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79EA49C2-B9BF-4F3F-A2B7-EAEFA27D5020}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>FIN 605 Applied Portfolio Management</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>This course builds on the "Investments" (FIN500) course and explains how the basic concepts are applied in practice. While the focus is on equity portfolios, bond portfolio management, Hedge Funds and Asset Allocation will also be covered.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>The course provides students with an understanding of how equity and bond portfolios are managed in practice. of investment strategies. Through numerous application examples, the course teaches how theoretical concepts and scientific findings can be implemented in practical portfolio management.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>FIN 500</t>
+  </si>
+  <si>
+    <t>Obligatory registrationFurther Information on registration</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Lecture 2 6</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Written exam (60 min.)</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Dr. Andreas Sauer</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>FWS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Math., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+  </si>
+  <si>
+    <t>and Insurance (FIN), FIN 500</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +148,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,213 +472,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FIN 605 Applied Portfolio Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>This course builds on the "Investments" (FIN500) course and explains how the basic concepts are applied in practice. While the focus is on equity portfolios, bond portfolio management, Hedge Funds and Asset Allocation will also be covered.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>The course provides students with an understanding of how equity and bond portfolios are managed in practice. of investment strategies. Through numerous application examples, the course teaches how theoretical concepts and scientific findings can be implemented in practical portfolio management.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>and Insurance (FIN)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FIN 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Obligatory registrationFurther Information on registration</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Lecture 2 6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Written exam (60 min.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Dr. Andreas Sauer</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>FWS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Math., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
